--- a/01_data-input/wiiw/gdp.xlsx
+++ b/01_data-input/wiiw/gdp.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393AC41-A0EF-4B14-8EB5-2F11086EA699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -41,7 +47,7 @@
     <t>Extracted on:</t>
   </si>
   <si>
-    <t>2024-06-22 18:47:35</t>
+    <t>2024-06-26 22:07:07</t>
   </si>
   <si>
     <t>Country-Code</t>
@@ -62,27 +68,45 @@
     <t>Sources</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Gross domestic product total</t>
+  </si>
+  <si>
+    <t>NCU m (incl. 'euro fixed' series)</t>
+  </si>
+  <si>
+    <t>From 1996 ESA'10 - valid for all real and nominal GDP series.</t>
+  </si>
+  <si>
+    <t>Eurostat, Institute of Statistics of Albania</t>
+  </si>
+  <si>
+    <t>EUR m</t>
+  </si>
+  <si>
+    <t>Eurostat, Institute of Statistics of Albania, wiiw</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>Gross domestic product total</t>
-  </si>
-  <si>
-    <t>EUR m</t>
-  </si>
-  <si>
     <t>From 2000 ESA'10, ESA'95 before, FISIM not reallocated until 2014 - valid for all real and nominal GDP series.</t>
   </si>
   <si>
+    <t>Eurostat, Agency of Statistics of Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t>Eurostat, Agency of Statistics of Bosnia and Herzegovina, wiiw</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>XK</t>
   </si>
   <si>
@@ -104,7 +128,37 @@
     <t>From 1994 excluding data on districts from the left side of the river Nistru and municipality Bender - valid for all related series. From 2010 SNA'08 (SNA'93 before, FISIM not reallocated) - valid for real and nominal GDP series.</t>
   </si>
   <si>
+    <t>National Bureau of Statistics of Moldova</t>
+  </si>
+  <si>
     <t>National Bureau of Statistics of Moldova, wiiw</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>From 2006 ESA'10 (ESA'95 before, FISIM not reallocated until 2005) - valid for all nominal real GDP series.</t>
+  </si>
+  <si>
+    <t>Eurostat, Statistical Office of Montenegro</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>SNA'93, from 1997 ESA'95 (FISIM not reallocated), from 2000 ESA'10 - valid for all real and nominal GDP series.</t>
+  </si>
+  <si>
+    <t>Eurostat, State Statistical Office of North Macedonia</t>
+  </si>
+  <si>
+    <t>Eurostat, State Statistical Office of North Macedonia, wiiw</t>
   </si>
   <si>
     <t>Source:</t>
@@ -116,52 +170,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="8"/>
       <color rgb="FF0101DF"/>
       <name val="Arial"/>
@@ -172,43 +211,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -498,59 +538,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.96" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.24" customWidth="true" style="0"/>
-    <col min="3" max="3" width="26.82959" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="5.499233" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="26" customWidth="true" style="0"/>
-    <col min="6" max="6" width="58.658482" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8" customWidth="true" style="0"/>
-    <col min="13" max="13" width="8" customWidth="true" style="0"/>
-    <col min="14" max="14" width="8" customWidth="true" style="0"/>
-    <col min="15" max="15" width="8" customWidth="true" style="0"/>
-    <col min="16" max="16" width="8" customWidth="true" style="0"/>
-    <col min="17" max="17" width="8" customWidth="true" style="0"/>
-    <col min="18" max="18" width="8" customWidth="true" style="0"/>
-    <col min="19" max="19" width="8" customWidth="true" style="0"/>
-    <col min="20" max="20" width="8" customWidth="true" style="0"/>
-    <col min="21" max="21" width="8" customWidth="true" style="0"/>
-    <col min="22" max="22" width="8" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" customWidth="true" style="0"/>
-    <col min="25" max="25" width="8" customWidth="true" style="0"/>
-    <col min="26" max="26" width="8" customWidth="true" style="0"/>
-    <col min="27" max="27" width="8" customWidth="true" style="0"/>
-    <col min="28" max="28" width="8" customWidth="true" style="0"/>
-    <col min="29" max="29" width="8" customWidth="true" style="0"/>
-    <col min="30" max="30" width="8" customWidth="true" style="0"/>
-    <col min="31" max="31" width="8" customWidth="true" style="0"/>
-    <col min="32" max="32" width="8" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -558,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -566,7 +578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -574,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -582,7 +594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -602,82 +614,67 @@
         <v>14</v>
       </c>
       <c r="G7" s="2">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="H7" s="2">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="I7" s="2">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="J7" s="2">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="K7" s="2">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="L7" s="2">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="M7" s="2">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="N7" s="2">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="O7" s="2">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="P7" s="2">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="Q7" s="2">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="R7" s="2">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="S7" s="2">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="T7" s="2">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="U7" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="V7" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="W7" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="X7" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="Y7" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="Z7" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>2015</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>2016</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>2018</v>
-      </c>
-      <c r="AE7" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -696,183 +693,153 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>21</v>
+      <c r="G8" s="3">
+        <v>501199</v>
+      </c>
+      <c r="H8" s="3">
+        <v>563448.80000000005</v>
       </c>
       <c r="I8" s="3">
-        <v>3367.5126904</v>
+        <v>610494.30000000005</v>
       </c>
       <c r="J8" s="3">
-        <v>4158.2150101</v>
+        <v>677737.5</v>
       </c>
       <c r="K8" s="3">
-        <v>4986.1184254</v>
+        <v>737655.5</v>
       </c>
       <c r="L8" s="3">
-        <v>6043.265519</v>
+        <v>804163.2</v>
       </c>
       <c r="M8" s="3">
-        <v>6482.2607282</v>
+        <v>872735.1</v>
       </c>
       <c r="N8" s="3">
-        <v>7149.0875996</v>
+        <v>965527.8</v>
       </c>
       <c r="O8" s="3">
-        <v>7530.3068263</v>
+        <v>1080675.8999999999</v>
       </c>
       <c r="P8" s="3">
-        <v>8179.6986446</v>
+        <v>1143936.5</v>
       </c>
       <c r="Q8" s="3">
-        <v>9024.455090699999</v>
+        <v>1239644.6000000001</v>
       </c>
       <c r="R8" s="3">
-        <v>10255.0835195</v>
+        <v>1300624.1000000001</v>
       </c>
       <c r="S8" s="3">
-        <v>11528.558208</v>
+        <v>1332811</v>
       </c>
       <c r="T8" s="3">
-        <v>13047.8109038</v>
+        <v>1350052.6</v>
       </c>
       <c r="U8" s="3">
-        <v>12679.2717158</v>
+        <v>1395304.6</v>
       </c>
       <c r="V8" s="3">
-        <v>12968.9185665</v>
+        <v>1434306.5</v>
       </c>
       <c r="W8" s="3">
-        <v>13411.8507232</v>
+        <v>1472479.1</v>
       </c>
       <c r="X8" s="3">
-        <v>13407.453613</v>
+        <v>1550645.5</v>
       </c>
       <c r="Y8" s="3">
-        <v>13691.7830282</v>
+        <v>1636731.3</v>
       </c>
       <c r="Z8" s="3">
-        <v>13988.2811901</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>14791.1117019</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>15474.2999136</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>16260.4623101</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>17354.1667732</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>18296.5288394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+        <v>1691903.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3780.3514859000002</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4385.8394956000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4612.3776065000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4928.6415532999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5777.8295606000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6475.2653192999996</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7090.7954176000003</v>
+      </c>
+      <c r="N9" s="3">
+        <v>7809.8180052999996</v>
+      </c>
+      <c r="O9" s="3">
+        <v>8800.2923453000003</v>
+      </c>
+      <c r="P9" s="3">
+        <v>8662.2482204999997</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>8996.6223964000001</v>
+      </c>
+      <c r="R9" s="3">
+        <v>9268.3253758999999</v>
+      </c>
+      <c r="S9" s="3">
+        <v>9585.8098389000006</v>
+      </c>
+      <c r="T9" s="3">
+        <v>9625.3571938000005</v>
+      </c>
+      <c r="U9" s="3">
+        <v>9968.5975565999997</v>
+      </c>
+      <c r="V9" s="3">
+        <v>10264.108344099999</v>
+      </c>
+      <c r="W9" s="3">
+        <v>10719.8536692</v>
+      </c>
+      <c r="X9" s="3">
+        <v>11559.042117000001</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>12828.053139</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>13754.193968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2417</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2831</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2862</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2967</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2911.812</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>3002.764</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3120.411</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3460.768</v>
-      </c>
-      <c r="T9" s="3">
-        <v>3537.6</v>
-      </c>
-      <c r="U9" s="3">
-        <v>3610.4</v>
-      </c>
-      <c r="V9" s="3">
-        <v>4031</v>
-      </c>
-      <c r="W9" s="3">
-        <v>4555.9</v>
-      </c>
-      <c r="X9" s="3">
-        <v>4797.3</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>5071.3</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>5325.1</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>5674.4</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>6037.3</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>6356.5</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>6671.5</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>7056.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -881,115 +848,1796 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11819.6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12678.2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>13982.4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>14728</v>
+      </c>
+      <c r="K10" s="3">
+        <v>15998.1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>17650.3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>20057.2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>22547.9</v>
+      </c>
+      <c r="O10" s="3">
+        <v>25519.3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>24798.5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>25365</v>
+      </c>
+      <c r="R10" s="3">
+        <v>26231.3</v>
+      </c>
+      <c r="S10" s="3">
+        <v>26222.7</v>
+      </c>
+      <c r="T10" s="3">
+        <v>26778.799999999999</v>
+      </c>
+      <c r="U10" s="3">
+        <v>27358.7</v>
+      </c>
+      <c r="V10" s="3">
+        <v>28928.9</v>
+      </c>
+      <c r="W10" s="3">
+        <v>30265.1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>31802.7</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>33941.800000000003</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>35784.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6043.2655189999996</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6482.2607281999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7149.0875996000004</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7530.3068262999996</v>
+      </c>
+      <c r="K11" s="3">
+        <v>8179.6986446000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>9024.4550906999993</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10255.0835195</v>
+      </c>
+      <c r="N11" s="3">
+        <v>11528.558208</v>
+      </c>
+      <c r="O11" s="3">
+        <v>13047.8109038</v>
+      </c>
+      <c r="P11" s="3">
+        <v>12679.2717158</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>12968.9185665</v>
+      </c>
+      <c r="R11" s="3">
+        <v>13411.850723199999</v>
+      </c>
+      <c r="S11" s="3">
+        <v>13407.453613</v>
+      </c>
+      <c r="T11" s="3">
+        <v>13691.7830282</v>
+      </c>
+      <c r="U11" s="3">
+        <v>13988.2811901</v>
+      </c>
+      <c r="V11" s="3">
+        <v>14791.111701899999</v>
+      </c>
+      <c r="W11" s="3">
+        <v>15474.2999136</v>
+      </c>
+      <c r="X11" s="3">
+        <v>16260.4623101</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>17354.166773199999</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>18296.528839400002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2417</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2831</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2862</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2967</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2911.8119999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3002.7640000000001</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3120.4110000000001</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3460.768</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3537.6</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3610.4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4031</v>
+      </c>
+      <c r="R12" s="3">
+        <v>4555.8999999999996</v>
+      </c>
+      <c r="S12" s="3">
+        <v>4797.3</v>
+      </c>
+      <c r="T12" s="3">
+        <v>5071.3</v>
+      </c>
+      <c r="U12" s="3">
+        <v>5325.1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>5674.4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>6037.3</v>
+      </c>
+      <c r="X12" s="3">
+        <v>6356.5</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>6671.5</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>7056.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2417</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2831</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2862</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2967</v>
+      </c>
+      <c r="K13" s="3">
+        <v>2911.8119999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3002.7640000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3120.4110000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3460.768</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3537.6</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3610.4</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>4031</v>
+      </c>
+      <c r="R13" s="3">
+        <v>4555.8999999999996</v>
+      </c>
+      <c r="S13" s="3">
+        <v>4797.3</v>
+      </c>
+      <c r="T13" s="3">
+        <v>5071.3</v>
+      </c>
+      <c r="U13" s="3">
+        <v>5325.1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>5674.4</v>
+      </c>
+      <c r="W13" s="3">
+        <v>6037.3</v>
+      </c>
+      <c r="X13" s="3">
+        <v>6356.5</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>6671.5</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>7056.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3">
+        <v>16019.558000000001</v>
+      </c>
+      <c r="H14" s="3">
+        <v>19051.530999999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>22555.858</v>
+      </c>
+      <c r="J14" s="3">
+        <v>27618.918000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>32031.776999999998</v>
+      </c>
+      <c r="L14" s="3">
+        <v>37651.868999999999</v>
+      </c>
+      <c r="M14" s="3">
+        <v>44754.366999999998</v>
+      </c>
+      <c r="N14" s="3">
+        <v>53429.571000000004</v>
+      </c>
+      <c r="O14" s="3">
+        <v>62921.544999999998</v>
+      </c>
+      <c r="P14" s="3">
+        <v>60429.803</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>86275.376999999993</v>
+      </c>
+      <c r="R14" s="3">
+        <v>98772.813999999998</v>
+      </c>
+      <c r="S14" s="3">
+        <v>105480.18399999999</v>
+      </c>
+      <c r="T14" s="3">
+        <v>119532.871</v>
+      </c>
+      <c r="U14" s="3">
+        <v>131964.258</v>
+      </c>
+      <c r="V14" s="3">
+        <v>146740.20499999999</v>
+      </c>
+      <c r="W14" s="3">
+        <v>159010.41899999999</v>
+      </c>
+      <c r="X14" s="3">
+        <v>176007.29199999999</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>189062.62700000001</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>206256.239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1393.6715821</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1653.2190490999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1757.549109</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1754.6627447000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2089.6740080999998</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2398.5443183000002</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2713.7345226000002</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3218.9203305999999</v>
+      </c>
+      <c r="O15" s="3">
+        <v>4114.7783750999997</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3892.4690172999999</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>5260.8541114</v>
+      </c>
+      <c r="R15" s="3">
+        <v>6045.9948949999998</v>
+      </c>
+      <c r="S15" s="3">
+        <v>6777.5382954999995</v>
+      </c>
+      <c r="T15" s="3">
+        <v>7147.3425176999999</v>
+      </c>
+      <c r="U15" s="3">
+        <v>7082.6293331999996</v>
+      </c>
+      <c r="V15" s="3">
+        <v>7021.7179907999998</v>
+      </c>
+      <c r="W15" s="3">
+        <v>7209.7873932000002</v>
+      </c>
+      <c r="X15" s="3">
+        <v>8450.4322025000001</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>9527.3494018000001</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>10483.642911200001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1065.6990000000001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1295.1110000000001</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1360.3530000000001</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1510.1279999999999</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1669.7829999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1814.9939999999999</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2169.6</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2689.1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3103.3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2993.9</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>3125.1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3264.8</v>
+      </c>
+      <c r="S16" s="3">
+        <v>3181.5</v>
+      </c>
+      <c r="T16" s="3">
+        <v>3362.5</v>
+      </c>
+      <c r="U16" s="3">
+        <v>3457.9</v>
+      </c>
+      <c r="V16" s="3">
+        <v>3654.5</v>
+      </c>
+      <c r="W16" s="3">
+        <v>3954.2</v>
+      </c>
+      <c r="X16" s="3">
+        <v>4299.1000000000004</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>4663.1000000000004</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>4950.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1065.6990000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1295.1110000000001</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1360.3530000000001</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1510.1279999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1669.7829999999999</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1814.9939999999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2169.6</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2689.1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3103.3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2993.9</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3125.1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3264.8</v>
+      </c>
+      <c r="S17" s="3">
+        <v>3181.5</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3362.5</v>
+      </c>
+      <c r="U17" s="3">
+        <v>3457.9</v>
+      </c>
+      <c r="V17" s="3">
+        <v>3654.5</v>
+      </c>
+      <c r="W17" s="3">
+        <v>3954.2</v>
+      </c>
+      <c r="X17" s="3">
+        <v>4299.1000000000004</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>4663.1000000000004</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>4950.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3">
+        <v>248646.39999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>252393.5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>258580.7</v>
+      </c>
+      <c r="J18" s="3">
+        <v>268693.59999999998</v>
+      </c>
+      <c r="K18" s="3">
+        <v>280786</v>
+      </c>
+      <c r="L18" s="3">
+        <v>308447.2</v>
+      </c>
+      <c r="M18" s="3">
+        <v>334840.09999999998</v>
+      </c>
+      <c r="N18" s="3">
+        <v>372889.2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>414890.1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>414621.9</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>437295.5</v>
+      </c>
+      <c r="R18" s="3">
+        <v>464186.3</v>
+      </c>
+      <c r="S18" s="3">
+        <v>466702.7</v>
+      </c>
+      <c r="T18" s="3">
+        <v>501891</v>
+      </c>
+      <c r="U18" s="3">
+        <v>527631</v>
+      </c>
+      <c r="V18" s="3">
+        <v>558953.6</v>
+      </c>
+      <c r="W18" s="3">
+        <v>594794.9</v>
+      </c>
+      <c r="X18" s="3">
+        <v>618105.5</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>660878.19999999995</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>692682.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4094.5826889999998</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4143.5011516000004</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4240.5155250999996</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4385.8962410000004</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4577.7440118000004</v>
+      </c>
+      <c r="L19" s="3">
+        <v>5032.0113546000002</v>
+      </c>
+      <c r="M19" s="3">
+        <v>5472.1733758999999</v>
+      </c>
+      <c r="N19" s="3">
+        <v>6094.4844053999996</v>
+      </c>
+      <c r="O19" s="3">
+        <v>6772.1016705000002</v>
+      </c>
+      <c r="P19" s="3">
+        <v>6766.5090183000002</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>7108.2767655999996</v>
+      </c>
+      <c r="R19" s="3">
+        <v>7544.1627715000004</v>
+      </c>
+      <c r="S19" s="3">
+        <v>7584.7645763</v>
+      </c>
+      <c r="T19" s="3">
+        <v>8149.5656410000001</v>
+      </c>
+      <c r="U19" s="3">
+        <v>8562.0468516000001</v>
+      </c>
+      <c r="V19" s="3">
+        <v>9072.3020240000005</v>
+      </c>
+      <c r="W19" s="3">
+        <v>9656.4667872999999</v>
+      </c>
+      <c r="X19" s="3">
+        <v>10038.3030693</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>10743.977955300001</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>11262.037850000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE8A58-0FB6-4ED3-A08C-4ED405BD1EC0}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>501199</v>
+      </c>
+      <c r="F2" s="3">
+        <v>563448.80000000005</v>
+      </c>
+      <c r="G2" s="3">
+        <v>610494.30000000005</v>
+      </c>
+      <c r="H2" s="3">
+        <v>677737.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>737655.5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>804163.2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>872735.1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>965527.8</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1080675.8999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1143936.5</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1239644.6000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1300624.1000000001</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1332811</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1350052.6</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1395304.6</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1434306.5</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1472479.1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1550645.5</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1636731.3</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1691903.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3780.3514859000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4385.8394956000002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4612.3776065000002</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4928.6415532999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5777.8295606000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6475.2653192999996</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7090.7954176000003</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7809.8180052999996</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8800.2923453000003</v>
+      </c>
+      <c r="N3" s="3">
+        <v>8662.2482204999997</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8996.6223964000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>9268.3253758999999</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>9585.8098389000006</v>
+      </c>
+      <c r="R3" s="3">
+        <v>9625.3571938000005</v>
+      </c>
+      <c r="S3" s="3">
+        <v>9968.5975565999997</v>
+      </c>
+      <c r="T3" s="3">
+        <v>10264.108344099999</v>
+      </c>
+      <c r="U3" s="3">
+        <v>10719.8536692</v>
+      </c>
+      <c r="V3" s="3">
+        <v>11559.042117000001</v>
+      </c>
+      <c r="W3" s="3">
+        <v>12828.053139</v>
+      </c>
+      <c r="X3" s="3">
+        <v>13754.193968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11819.6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>12678.2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13982.4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14728</v>
+      </c>
+      <c r="I4" s="3">
+        <v>15998.1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>17650.3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>20057.2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>22547.9</v>
+      </c>
+      <c r="M4" s="3">
+        <v>25519.3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>24798.5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>25365</v>
+      </c>
+      <c r="P4" s="3">
+        <v>26231.3</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>26222.7</v>
+      </c>
+      <c r="R4" s="3">
+        <v>26778.799999999999</v>
+      </c>
+      <c r="S4" s="3">
+        <v>27358.7</v>
+      </c>
+      <c r="T4" s="3">
+        <v>28928.9</v>
+      </c>
+      <c r="U4" s="3">
+        <v>30265.1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>31802.7</v>
+      </c>
+      <c r="W4" s="3">
+        <v>33941.800000000003</v>
+      </c>
+      <c r="X4" s="3">
+        <v>35784.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6043.2655189999996</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6482.2607281999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7149.0875996000004</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7530.3068262999996</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8179.6986446000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>9024.4550906999993</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10255.0835195</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11528.558208</v>
+      </c>
+      <c r="M5" s="3">
+        <v>13047.8109038</v>
+      </c>
+      <c r="N5" s="3">
+        <v>12679.2717158</v>
+      </c>
+      <c r="O5" s="3">
+        <v>12968.9185665</v>
+      </c>
+      <c r="P5" s="3">
+        <v>13411.850723199999</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>13407.453613</v>
+      </c>
+      <c r="R5" s="3">
+        <v>13691.7830282</v>
+      </c>
+      <c r="S5" s="3">
+        <v>13988.2811901</v>
+      </c>
+      <c r="T5" s="3">
+        <v>14791.111701899999</v>
+      </c>
+      <c r="U5" s="3">
+        <v>15474.2999136</v>
+      </c>
+      <c r="V5" s="3">
+        <v>16260.4623101</v>
+      </c>
+      <c r="W5" s="3">
+        <v>17354.166773199999</v>
+      </c>
+      <c r="X5" s="3">
+        <v>18296.528839400002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2417</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2831</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2862</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2967</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2911.8119999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3002.7640000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3120.4110000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3460.768</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3537.6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3610.4</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4031</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4555.8999999999996</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>4797.3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>5071.3</v>
+      </c>
+      <c r="S6" s="3">
+        <v>5325.1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>5674.4</v>
+      </c>
+      <c r="U6" s="3">
+        <v>6037.3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>6356.5</v>
+      </c>
+      <c r="W6" s="3">
+        <v>6671.5</v>
+      </c>
+      <c r="X6" s="3">
+        <v>7056.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2417</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2831</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2862</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2967</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2911.8119999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3002.7640000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3120.4110000000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3460.768</v>
+      </c>
+      <c r="M7" s="3">
+        <v>3537.6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>3610.4</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4031</v>
+      </c>
+      <c r="P7" s="3">
+        <v>4555.8999999999996</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4797.3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>5071.3</v>
+      </c>
+      <c r="S7" s="3">
+        <v>5325.1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>5674.4</v>
+      </c>
+      <c r="U7" s="3">
+        <v>6037.3</v>
+      </c>
+      <c r="V7" s="3">
+        <v>6356.5</v>
+      </c>
+      <c r="W7" s="3">
+        <v>6671.5</v>
+      </c>
+      <c r="X7" s="3">
+        <v>7056.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16019.558000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>19051.530999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>22555.858</v>
+      </c>
+      <c r="H8" s="3">
+        <v>27618.918000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>32031.776999999998</v>
+      </c>
+      <c r="J8" s="3">
+        <v>37651.868999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44754.366999999998</v>
+      </c>
+      <c r="L8" s="3">
+        <v>53429.571000000004</v>
+      </c>
+      <c r="M8" s="3">
+        <v>62921.544999999998</v>
+      </c>
+      <c r="N8" s="3">
+        <v>60429.803</v>
+      </c>
+      <c r="O8" s="3">
+        <v>86275.376999999993</v>
+      </c>
+      <c r="P8" s="3">
+        <v>98772.813999999998</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>105480.18399999999</v>
+      </c>
+      <c r="R8" s="3">
+        <v>119532.871</v>
+      </c>
+      <c r="S8" s="3">
+        <v>131964.258</v>
+      </c>
+      <c r="T8" s="3">
+        <v>146740.20499999999</v>
+      </c>
+      <c r="U8" s="3">
+        <v>159010.41899999999</v>
+      </c>
+      <c r="V8" s="3">
+        <v>176007.29199999999</v>
+      </c>
+      <c r="W8" s="3">
+        <v>189062.62700000001</v>
+      </c>
+      <c r="X8" s="3">
+        <v>206256.239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1393.6715821</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1653.2190490999999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1757.549109</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1754.6627447000001</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2089.6740080999998</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2398.5443183000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2713.7345226000002</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3218.9203305999999</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4114.7783750999997</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3892.4690172999999</v>
+      </c>
+      <c r="O9" s="3">
+        <v>5260.8541114</v>
+      </c>
+      <c r="P9" s="3">
+        <v>6045.9948949999998</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>6777.5382954999995</v>
+      </c>
+      <c r="R9" s="3">
+        <v>7147.3425176999999</v>
+      </c>
+      <c r="S9" s="3">
+        <v>7082.6293331999996</v>
+      </c>
+      <c r="T9" s="3">
+        <v>7021.7179907999998</v>
+      </c>
+      <c r="U9" s="3">
+        <v>7209.7873932000002</v>
+      </c>
+      <c r="V9" s="3">
+        <v>8450.4322025000001</v>
+      </c>
+      <c r="W9" s="3">
+        <v>9527.3494018000001</v>
+      </c>
+      <c r="X9" s="3">
+        <v>10483.642911200001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1065.6990000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1295.1110000000001</v>
+      </c>
       <c r="G10" s="3">
-        <v>1101.9800527</v>
+        <v>1360.3530000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>1334.290604</v>
+        <v>1510.1279999999999</v>
       </c>
       <c r="I10" s="3">
-        <v>1700.8339031</v>
+        <v>1669.7829999999999</v>
       </c>
       <c r="J10" s="3">
-        <v>1514.5010433</v>
+        <v>1814.9939999999999</v>
       </c>
       <c r="K10" s="3">
-        <v>1100.7775941</v>
+        <v>2169.6</v>
       </c>
       <c r="L10" s="3">
-        <v>1393.6715821</v>
+        <v>2689.1</v>
       </c>
       <c r="M10" s="3">
-        <v>1653.2190491</v>
+        <v>3103.3</v>
       </c>
       <c r="N10" s="3">
-        <v>1757.549109</v>
+        <v>2993.9</v>
       </c>
       <c r="O10" s="3">
-        <v>1754.6627447</v>
+        <v>3125.1</v>
       </c>
       <c r="P10" s="3">
-        <v>2089.6740081</v>
+        <v>3264.8</v>
       </c>
       <c r="Q10" s="3">
-        <v>2398.5443183</v>
+        <v>3181.5</v>
       </c>
       <c r="R10" s="3">
-        <v>2713.7345226</v>
+        <v>3362.5</v>
       </c>
       <c r="S10" s="3">
-        <v>3218.9203306</v>
+        <v>3457.9</v>
       </c>
       <c r="T10" s="3">
-        <v>4114.7783751</v>
+        <v>3654.5</v>
       </c>
       <c r="U10" s="3">
-        <v>3892.4690173</v>
+        <v>3954.2</v>
       </c>
       <c r="V10" s="3">
-        <v>5260.8541114</v>
+        <v>4299.1000000000004</v>
       </c>
       <c r="W10" s="3">
-        <v>6045.994895</v>
+        <v>4663.1000000000004</v>
       </c>
       <c r="X10" s="3">
-        <v>6777.5382955</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>7147.3425177</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>7082.6293332</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>7021.7179908</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>7209.7873932</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>8450.4322025</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>9527.3494018</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>10483.6429112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>4950.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1065.6990000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1295.1110000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1360.3530000000001</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1510.1279999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1669.7829999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1814.9939999999999</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2169.6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2689.1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3103.3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2993.9</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3125.1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>3264.8</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>3181.5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3362.5</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3457.9</v>
+      </c>
+      <c r="T11" s="3">
+        <v>3654.5</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3954.2</v>
+      </c>
+      <c r="V11" s="3">
+        <v>4299.1000000000004</v>
+      </c>
+      <c r="W11" s="3">
+        <v>4663.1000000000004</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4950.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>248646.39999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>252393.5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>258580.7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>268693.59999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <v>280786</v>
+      </c>
+      <c r="J12" s="3">
+        <v>308447.2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>334840.09999999998</v>
+      </c>
+      <c r="L12" s="3">
+        <v>372889.2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>414890.1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>414621.9</v>
+      </c>
+      <c r="O12" s="3">
+        <v>437295.5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>464186.3</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>466702.7</v>
+      </c>
+      <c r="R12" s="3">
+        <v>501891</v>
+      </c>
+      <c r="S12" s="3">
+        <v>527631</v>
+      </c>
+      <c r="T12" s="3">
+        <v>558953.6</v>
+      </c>
+      <c r="U12" s="3">
+        <v>594794.9</v>
+      </c>
+      <c r="V12" s="3">
+        <v>618105.5</v>
+      </c>
+      <c r="W12" s="3">
+        <v>660878.19999999995</v>
+      </c>
+      <c r="X12" s="3">
+        <v>692682.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4094.5826889999998</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4143.5011516000004</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4240.5155250999996</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4385.8962410000004</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4577.7440118000004</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5032.0113546000002</v>
+      </c>
+      <c r="K13" s="3">
+        <v>5472.1733758999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>6094.4844053999996</v>
+      </c>
+      <c r="M13" s="3">
+        <v>6772.1016705000002</v>
+      </c>
+      <c r="N13" s="3">
+        <v>6766.5090183000002</v>
+      </c>
+      <c r="O13" s="3">
+        <v>7108.2767655999996</v>
+      </c>
+      <c r="P13" s="3">
+        <v>7544.1627715000004</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>7584.7645763</v>
+      </c>
+      <c r="R13" s="3">
+        <v>8149.5656410000001</v>
+      </c>
+      <c r="S13" s="3">
+        <v>8562.0468516000001</v>
+      </c>
+      <c r="T13" s="3">
+        <v>9072.3020240000005</v>
+      </c>
+      <c r="U13" s="3">
+        <v>9656.4667872999999</v>
+      </c>
+      <c r="V13" s="3">
+        <v>10038.3030693</v>
+      </c>
+      <c r="W13" s="3">
+        <v>10743.977955300001</v>
+      </c>
+      <c r="X13" s="3">
+        <v>11262.037850000001</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId_hyperlink_1"/>
-  </hyperlinks>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>